--- a/biology/Botanique/Square_des_Épinettes/Square_des_Épinettes.xlsx
+++ b/biology/Botanique/Square_des_Épinettes/Square_des_Épinettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89pinettes</t>
+          <t>Square_des_Épinettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square des Épinettes est un grand square de Paris, situé dans le quartier des Épinettes dans le 17e arrondissement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89pinettes</t>
+          <t>Square_des_Épinettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est encadré par la rue Félix-Pécaut au nord, la rue Maria-Deraismes à l'est, la rue Collette au sud et la rue Jean-Leclaire à l'ouest.
 Le square des Épinettes est desservi par la ligne 13 à la station Guy Môquet.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89pinettes</t>
+          <t>Square_des_Épinettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte ce nom en référence au lieu-dit, devenu un quartier, dans lequel il se situe[1] et qui doit son nom à l'épinette blanche, un cépage de vignes autrefois présent sur cette colline[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte ce nom en référence au lieu-dit, devenu un quartier, dans lequel il se situe et qui doit son nom à l'épinette blanche, un cépage de vignes autrefois présent sur cette colline.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89pinettes</t>
+          <t>Square_des_Épinettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1893 par Jean-Camille Formigé, réaménagé en 1980 et 1992, ce square s'étend sur 10 420 m2. Un kiosque à musique en occupe le centre.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89pinettes</t>
+          <t>Square_des_Épinettes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,13 +624,15 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square abrite deux sculptures :
 le Monument à Jean Leclaire par Jules Dalou (1896) ;
 la Statue de Maria Deraismes par Louis-Ernest Barrias (1898).
-En 1943, ces bronzes sont déboulonnés par le régime de Vichy dans le cadre de la mobilisation des métaux non ferreux et envoyés en Allemagne. Le groupe en bronze du monument à Jean Leclaire a été refondu et ré-érigé sur son socle en 1971, mais il manque le seau que tenait l'ouvrier dans la version d'origine[3].
-La statue de Maria Deraismes a été refondue en 1983 par la fonderie de Coubertin et ré-érigée dans le square[4].
+En 1943, ces bronzes sont déboulonnés par le régime de Vichy dans le cadre de la mobilisation des métaux non ferreux et envoyés en Allemagne. Le groupe en bronze du monument à Jean Leclaire a été refondu et ré-érigé sur son socle en 1971, mais il manque le seau que tenait l'ouvrier dans la version d'origine.
+La statue de Maria Deraismes a été refondue en 1983 par la fonderie de Coubertin et ré-érigée dans le square.
 </t>
         </is>
       </c>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Square_des_%C3%89pinettes</t>
+          <t>Square_des_Épinettes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +661,12 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Marronnier d’Inde, hauteur 35, circonférence 383 cm (classé arbre remarquable[5]).
-Tulipier de Virginie, hauteur 17 m, circonférence 240 cm (classé arbre remarquable[5]).</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marronnier d’Inde, hauteur 35, circonférence 383 cm (classé arbre remarquable).
+Tulipier de Virginie, hauteur 17 m, circonférence 240 cm (classé arbre remarquable).</t>
         </is>
       </c>
     </row>
